--- a/Document/TaskTracking - Coffee Shop.xlsx
+++ b/Document/TaskTracking - Coffee Shop.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/study/MUM/WAA/project/TheCoffeeShop/Document/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Controller</t>
   </si>
@@ -102,9 +112,6 @@
     <t>Servlet</t>
   </si>
   <si>
-    <t>Vera</t>
-  </si>
-  <si>
     <t>Chuck</t>
   </si>
   <si>
@@ -169,6 +176,9 @@
   </si>
   <si>
     <t>Activity</t>
+  </si>
+  <si>
+    <t>Vinh Hoang</t>
   </si>
 </sst>
 </file>
@@ -304,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,40 +560,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -609,13 +620,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4">
         <f>SUM(D5:D20)</f>
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(H5:H20)</f>
@@ -630,12 +641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -647,12 +658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -681,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -698,12 +709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -715,12 +726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -732,12 +743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -752,12 +763,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -769,12 +780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -786,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -803,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -820,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -837,27 +848,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
@@ -871,13 +882,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="9">
         <f>SUM(D22:D28)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21" s="8">
         <f>SUM(H22:H28)</f>
@@ -892,44 +903,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6">
         <f>SUM(D30:D33)</f>
@@ -948,34 +971,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="N33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="6">
         <f>SUM(D35:D39)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="5">
         <f>SUM(H35:H39)</f>
@@ -990,34 +1013,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="6">
         <f>SUM(D41:D44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="5">
         <f>SUM(H41:H44)</f>
@@ -1032,24 +1067,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="9">
         <f>SUM(D46:D47)</f>
@@ -1068,13 +1112,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="6">
         <f>SUM(D49:D50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48" s="5">
         <f>SUM(H49:H50)</f>
@@ -1089,7 +1133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>19</v>
       </c>
@@ -1110,9 +1159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="6">
         <f>SUM(D55:D56)</f>
@@ -1131,13 +1180,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="6">
         <f>SUM(D58:D61)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H57" s="5">
         <f>SUM(H58:H61)</f>
@@ -1152,9 +1201,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="6">
         <f>SUM(63:66)</f>
@@ -1173,28 +1230,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="6">
         <f>SUM(D4,D21,D29,D34,D40,D45,D48,D51,D54)</f>
-        <v>3.75</v>
+        <v>37</v>
       </c>
       <c r="H67" s="5">
         <f>SUM(H4,H21,H29,H34,H40,H45,H48,H51,H54)</f>
@@ -1221,7 +1278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1233,7 +1290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
